--- a/Scrumboardsburndown.xlsx
+++ b/Scrumboardsburndown.xlsx
@@ -192,22 +192,22 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -341,11 +341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46068480"/>
-        <c:axId val="46070016"/>
+        <c:axId val="48488448"/>
+        <c:axId val="48489984"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="46068480"/>
+        <c:axId val="48488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,14 +355,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46070016"/>
+        <c:crossAx val="48489984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46070016"/>
+        <c:axId val="48489984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46068480"/>
+        <c:crossAx val="48488448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47552384"/>
-        <c:axId val="47553920"/>
+        <c:axId val="48560000"/>
+        <c:axId val="48561536"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="47552384"/>
+        <c:axId val="48560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,14 +535,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47553920"/>
+        <c:crossAx val="48561536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47553920"/>
+        <c:axId val="48561536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47552384"/>
+        <c:crossAx val="48560000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -1621,48 +1621,48 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
   </sheetData>
   <sortState ref="M1:S19">
@@ -1682,7 +1682,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,37 +1696,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>42837</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
       <c r="H3" t="s">
         <v>33</v>
       </c>
@@ -1738,18 +1738,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="3"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="H5" t="s">
         <v>0</v>
       </c>
@@ -1905,14 +1905,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>42838</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
       <c r="H13" t="s">
         <v>30</v>
       </c>
@@ -1924,18 +1924,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="3"/>
       <c r="H14" t="s">
         <v>5</v>
       </c>
@@ -1959,8 +1959,8 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="H15" t="s">
         <v>9</v>
       </c>
@@ -1986,9 +1986,6 @@
       </c>
       <c r="E16" t="s">
         <v>26</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
@@ -2026,11 +2023,11 @@
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2055,14 +2052,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>42839</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
       <c r="H22" t="s">
         <v>26</v>
       </c>
@@ -2074,18 +2071,18 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="3"/>
       <c r="H23" t="s">
         <v>7</v>
       </c>
@@ -2109,8 +2106,8 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="H24" t="s">
         <v>21</v>
       </c>
@@ -2130,9 +2127,6 @@
       </c>
       <c r="E25" t="s">
         <v>26</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -2154,9 +2148,6 @@
       <c r="E26" t="s">
         <v>6</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
@@ -2230,14 +2221,14 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>42840</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2249,18 +2240,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="3"/>
       <c r="H32" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2278,8 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="H33" t="s">
         <v>18</v>
       </c>
@@ -2311,9 +2302,6 @@
       </c>
       <c r="E34" t="s">
         <v>26</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
@@ -2338,9 +2326,6 @@
       <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
@@ -2364,9 +2349,6 @@
       <c r="E36" t="s">
         <v>28</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="H36" t="s">
         <v>23</v>
       </c>
@@ -2401,14 +2383,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>42841</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2"/>
       <c r="H38" t="s">
         <v>9</v>
       </c>
@@ -2420,18 +2402,18 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="3"/>
       <c r="H39" t="s">
         <v>11</v>
       </c>
@@ -2455,8 +2437,8 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="H40" t="s">
         <v>24</v>
       </c>
@@ -2476,9 +2458,6 @@
       </c>
       <c r="E41" t="s">
         <v>26</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2491,9 +2470,6 @@
       <c r="E42" t="s">
         <v>6</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2505,9 +2481,6 @@
       <c r="E43" t="s">
         <v>28</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2519,33 +2492,30 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>42842</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2560,8 +2530,8 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2579,9 +2549,6 @@
       <c r="E48" t="s">
         <v>26</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2593,9 +2560,6 @@
       <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2607,9 +2571,6 @@
       <c r="E50" t="s">
         <v>28</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2621,33 +2582,30 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>42843</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -2662,8 +2620,8 @@
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2681,9 +2639,6 @@
       <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2695,9 +2650,6 @@
       <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2709,9 +2661,6 @@
       <c r="E57" t="s">
         <v>28</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2723,9 +2672,6 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2739,41 +2685,35 @@
       <c r="E59" t="s">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>29</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>42844</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2788,8 +2728,8 @@
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2807,9 +2747,6 @@
       <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,98 +2759,71 @@
       <c r="E66" t="s">
         <v>6</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>28</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="E69" t="s">
         <v>0</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>3</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>29</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>27</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>30</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>42845</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -2928,121 +2838,77 @@
       <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>26</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>6</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>28</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="E82" t="s">
         <v>0</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>3</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>29</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>18</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>27</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>30</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>11</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>24</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A62:E62"/>
     <mergeCell ref="A75:E75"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="A22:E22"/>
@@ -3050,6 +2916,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A62:E62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
